--- a/flows/SPTI_fund_flow_data.xlsx
+++ b/flows/SPTI_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4221"/>
+  <dimension ref="A1:B4229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42645,6 +42645,86 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4222">
+      <c r="A4222" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B4222" t="n">
+        <v>8.417978</v>
+      </c>
+    </row>
+    <row r="4223">
+      <c r="A4223" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B4223" t="n">
+        <v>70.23092</v>
+      </c>
+    </row>
+    <row r="4224">
+      <c r="A4224" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B4224" t="n">
+        <v>5.6259937</v>
+      </c>
+    </row>
+    <row r="4225">
+      <c r="A4225" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B4225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4226">
+      <c r="A4226" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B4226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4227">
+      <c r="A4227" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B4227" t="n">
+        <v>2.8221207</v>
+      </c>
+    </row>
+    <row r="4228">
+      <c r="A4228" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B4228" t="n">
+        <v>11.305978</v>
+      </c>
+    </row>
+    <row r="4229">
+      <c r="A4229" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B4229" t="n">
+        <v>16.981478</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
